--- a/demo-water-reader-master/data/Data Entry.xlsx
+++ b/demo-water-reader-master/data/Data Entry.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nghitran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28000" windowHeight="16720"/>
+    <workbookView windowHeight="16720" windowWidth="28000" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Data Entry" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet3" r:id="rId2" sheetId="3"/>
   </sheets>
   <definedNames>
     <definedName name="ValidTabletDosed">'Data Entry'!$W$4:$W$5</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -73,9 +73,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="167" formatCode="MM/dd/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -383,88 +384,89 @@
     </border>
   </borders>
   <cellStyleXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyProtection="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyProtection="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyProtection="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="9" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="5" fontId="1" numFmtId="165" xfId="0">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="5" fontId="1" numFmtId="2" xfId="0">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="10" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="14" fillId="5" fontId="1" numFmtId="0" xfId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="4"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="6"/>
+    <cellStyle builtinId="8" hidden="1" name="Hyperlink" xfId="8"/>
+    <cellStyle builtinId="20" name="Input" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -478,10 +480,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -516,7 +518,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -551,7 +553,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -639,7 +641,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -648,13 +650,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -664,7 +666,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -673,7 +675,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -682,7 +684,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -692,12 +694,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -728,7 +730,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -747,7 +749,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -759,8 +761,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
@@ -768,14 +770,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.1640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.1640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.1640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row ht="19" r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
@@ -793,7 +795,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row ht="16" r="2" spans="1:23" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
@@ -839,23 +841,23 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>42556</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="A4" s="26" t="n">
+        <v>42556.0</v>
+      </c>
+      <c r="B4" s="1" t="n">
         <v>1.0499999523162842</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="n">
         <v>1.5399999618530273</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>11.899999618530273</v>
       </c>
-      <c r="E4" s="1">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.0000000474974513E-3</v>
+      <c r="E4" s="1" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -880,23 +882,23 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>42562</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="A5" s="26" t="n">
+        <v>42562.0</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>1.4199999570846558</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="n">
         <v>1.440000057220459</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="n">
         <v>12.100000381469727</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1.0000000474974513E-3</v>
+      <c r="E5" s="1" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>8</v>
@@ -921,23 +923,23 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>42583</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="A6" s="26" t="n">
+        <v>42583.0</v>
+      </c>
+      <c r="B6" s="1" t="n">
         <v>1.3600000143051147</v>
       </c>
-      <c r="C6" s="1">
-        <v>1.3400000333786011</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="D6" s="1" t="n">
         <v>11.800000190734863</v>
       </c>
-      <c r="E6" s="1">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1.0000000474974513E-3</v>
+      <c r="E6" s="1" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>7</v>
@@ -959,23 +961,23 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
-        <v>42590</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="A7" s="26" t="n">
+        <v>42590.0</v>
+      </c>
+      <c r="B7" s="1" t="n">
         <v>1.4199999570846558</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="1" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="n">
         <v>12.800000190734863</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F7" s="1">
-        <v>1.0000000474974513E-3</v>
+      <c r="F7" s="1" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -997,23 +999,23 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>42591</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="A8" s="26" t="n">
+        <v>42591.0</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="1" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="n">
         <v>11.300000190734863</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F8" s="1">
-        <v>1.0000000474974513E-3</v>
+      <c r="F8" s="1" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>8</v>
@@ -1035,23 +1037,23 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>42593</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="A9" s="26" t="n">
+        <v>42593.0</v>
+      </c>
+      <c r="B9" s="1" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="1" t="n">
         <v>1.559999942779541</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="n">
         <v>12.399999618530273</v>
       </c>
-      <c r="E9" s="1">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.0000000474974513E-3</v>
+      <c r="E9" s="1" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>7</v>
@@ -1073,23 +1075,23 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>42600</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1.4099999666213989</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="A10" s="26" t="n">
+        <v>42600.0</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>1.409999966621399</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>1.5800000429153442</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>13.899999618530273</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E10" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
@@ -1111,23 +1113,23 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>42605</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="26" t="n">
+        <v>42605.0</v>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>1.5800000429153442</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="2" t="n">
         <v>1.559999942779541</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>12.800000190734863</v>
       </c>
-      <c r="E11" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E11" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>7</v>
@@ -1149,23 +1151,23 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>42606</v>
-      </c>
-      <c r="B12" s="2">
+      <c r="A12" s="26" t="n">
+        <v>42606.0</v>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="2" t="n">
         <v>1.5700000524520874</v>
       </c>
-      <c r="D12" s="2">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="2" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E12" s="2" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F12" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F12" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>8</v>
@@ -1187,23 +1189,23 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
-        <v>42614</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="A13" s="26" t="n">
+        <v>42614.0</v>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>1.4700000286102295</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="2" t="n">
         <v>1.6200000047683716</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>13.800000190734863</v>
       </c>
-      <c r="E13" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E13" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>8</v>
@@ -1225,23 +1227,23 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <v>42621</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="26" t="n">
+        <v>42621.0</v>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>1.559999942779541</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="2" t="n">
         <v>1.6200000047683716</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="2" t="n">
         <v>13.800000190734863</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E14" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>7</v>
@@ -1263,23 +1265,23 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>42627</v>
-      </c>
-      <c r="B15" s="2">
+      <c r="A15" s="26" t="n">
+        <v>42627.0</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="2" t="n">
         <v>1.2799999713897705</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="2" t="n">
         <v>15.199999809265137</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E15" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>8</v>
@@ -1301,23 +1303,23 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>42632</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="A16" s="26" t="n">
+        <v>42632.0</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>1.4199999570846558</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="2" t="n">
         <v>14.899999618530273</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="2" t="n">
         <v>0.36000001430511475</v>
       </c>
-      <c r="F16" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F16" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>8</v>
@@ -1339,23 +1341,23 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>42640</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="26" t="n">
+        <v>42640.0</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>1.5399999618530273</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="2" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="D17" s="2">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17" s="2" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E17" s="2" t="n">
         <v>0.36000001430511475</v>
       </c>
-      <c r="F17" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F17" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>7</v>
@@ -1377,23 +1379,23 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>42653</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="26" t="n">
+        <v>42653.0</v>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="2" t="n">
         <v>1.2200000286102295</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>17.700000762939453</v>
       </c>
-      <c r="E18" s="2">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E18" s="2" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>8</v>
@@ -1415,23 +1417,23 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
-        <v>42654</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="26" t="n">
+        <v>42654.0</v>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>1.4700000286102295</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="2" t="n">
         <v>1.2400000095367432</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>16.600000381469727</v>
       </c>
-      <c r="E19" s="2">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2.0000000949949026E-3</v>
+      <c r="E19" s="2" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>0.0020000000949949026</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>7</v>
@@ -1453,23 +1455,23 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>42655</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="26" t="n">
+        <v>42655.0</v>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>15.899999618530273</v>
       </c>
-      <c r="E20" s="2">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E20" s="2" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>8</v>
@@ -1491,23 +1493,23 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>42661</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="26" t="n">
+        <v>42661.0</v>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>1.3799999952316284</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="2" t="n">
         <v>1.1799999475479126</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>16.299999237060547</v>
       </c>
-      <c r="E21" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E21" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>7</v>
@@ -1529,23 +1531,23 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>42667</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1.3999999761581421</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="A22" s="26" t="n">
+        <v>42667.0</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C22" s="2" t="n">
         <v>1.1799999475479126</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="2" t="n">
         <v>16.899999618530273</v>
       </c>
-      <c r="E22" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E22" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>8</v>
@@ -1567,23 +1569,23 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>42668</v>
-      </c>
-      <c r="B23" s="2">
+      <c r="A23" s="26" t="n">
+        <v>42668.0</v>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="2" t="n">
         <v>1.2200000286102295</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="2" t="n">
         <v>16.600000381469727</v>
       </c>
-      <c r="E23" s="2">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="F23" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E23" s="2" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>8</v>
@@ -1605,23 +1607,23 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>42681</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1.3400000333786011</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="A24" s="26" t="n">
+        <v>42681.0</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>1.1799999475479126</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="n">
         <v>18.700000762939453</v>
       </c>
-      <c r="E24" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2.0000000949949026E-3</v>
+      <c r="E24" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>0.0020000000949949026</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>8</v>
@@ -1642,24 +1644,24 @@
         <v>2.8000000864267349E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>42682</v>
-      </c>
-      <c r="B25" s="2">
+    <row ht="16" r="25" spans="1:13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="n">
+        <v>42682.0</v>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>1.5099999904632568</v>
       </c>
-      <c r="C25" s="2">
-        <v>1.1599999666213989</v>
-      </c>
-      <c r="D25" s="2">
+      <c r="C25" s="2" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <v>19.5</v>
       </c>
-      <c r="E25" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2.0000000949949026E-3</v>
+      <c r="E25" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>0.0020000000949949026</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>8</v>
@@ -1681,23 +1683,23 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
-        <v>42684</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1.4099999666213989</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="A26" s="26" t="n">
+        <v>42684.0</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>1.409999966621399</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>1.2599999904632568</v>
       </c>
-      <c r="D26" s="2">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F26" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="D26" s="2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>8</v>
@@ -1719,650 +1721,673 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
-        <v>42685</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1.3400000333786011</v>
-      </c>
-      <c r="C27" s="2">
+      <c r="A27" s="26" t="n">
+        <v>42685.0</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D27" s="2">
-        <v>19</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F27" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="D27" s="2" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
-        <v>42688</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" s="26" t="n">
+        <v>42688.0</v>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>1.2599999904632568</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="2" t="n">
         <v>1.2000000476837158</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="n">
         <v>19.600000381469727</v>
       </c>
-      <c r="E28" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F28" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E28" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
-        <v>42697</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1.3999999761581421</v>
-      </c>
-      <c r="C29" s="2">
+      <c r="A29" s="26" t="n">
+        <v>42697.0</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C29" s="2" t="n">
         <v>1.2799999713897705</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="n">
         <v>20.700000762939453</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="2" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F29" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F29" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
-        <v>42703</v>
-      </c>
-      <c r="B30" s="2">
+      <c r="A30" s="26" t="n">
+        <v>42703.0</v>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="2" t="n">
         <v>21.299999237060547</v>
       </c>
-      <c r="E30" s="2">
-        <v>0.31999999284744263</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2.0000000949949026E-3</v>
+      <c r="E30" s="2" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>0.0020000000949949026</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
-        <v>42709</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1.3999999761581421</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="A31" s="26" t="n">
+        <v>42709.0</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C31" s="2" t="n">
         <v>1.2400000095367432</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="2" t="n">
         <v>21.600000381469727</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="2" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F31" s="2">
-        <v>2.0000000949949026E-3</v>
+      <c r="F31" s="2" t="n">
+        <v>0.0020000000949949026</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
-        <v>42718</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="26" t="n">
+        <v>42718.0</v>
+      </c>
+      <c r="B32" s="2" t="n">
         <v>1.3600000143051147</v>
       </c>
-      <c r="C32" s="2">
-        <v>1.3400000333786011</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="2" t="n">
+        <v>1.340000033378601</v>
+      </c>
+      <c r="D32" s="2" t="n">
         <v>21.799999237060547</v>
       </c>
-      <c r="E32" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E32" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
-        <v>42726</v>
-      </c>
-      <c r="B33" s="2">
+      <c r="A33" s="26" t="n">
+        <v>42726.0</v>
+      </c>
+      <c r="B33" s="2" t="n">
         <v>1.559999942779541</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="2" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="2" t="n">
         <v>20.399999618530273</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="2" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F33" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F33" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
-        <v>42739</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="A34" s="26" t="n">
+        <v>42739.0</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="2" t="n">
         <v>1.4199999570846558</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="2" t="n">
         <v>22.100000381469727</v>
       </c>
-      <c r="E34" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F34" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E34" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
-        <v>42751</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="26" t="n">
+        <v>42751.0</v>
+      </c>
+      <c r="B35" s="2" t="n">
         <v>1.2400000095367432</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="2" t="n">
         <v>1.2400000095367432</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="2" t="n">
         <v>22.899999618530273</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="2" t="n">
         <v>0.36000001430511475</v>
       </c>
-      <c r="F35" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F35" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
-        <v>42759</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="A36" s="26" t="n">
+        <v>42759.0</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="2" t="n">
         <v>23.200000762939453</v>
       </c>
-      <c r="E36" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F36" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E36" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
-        <v>42774</v>
-      </c>
-      <c r="B37" s="2">
+      <c r="A37" s="26" t="n">
+        <v>42774.0</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="2" t="n">
         <v>1.2000000476837158</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="2" t="n">
         <v>23.100000381469727</v>
       </c>
-      <c r="E37" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E37" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
-        <v>42779</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="A38" s="26" t="n">
+        <v>42779.0</v>
+      </c>
+      <c r="B38" s="2" t="n">
         <v>1.2300000190734863</v>
       </c>
-      <c r="C38" s="2">
-        <v>1.1499999761581421</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="C38" s="2" t="n">
+        <v>1.149999976158142</v>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>23.600000381469727</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="2" t="n">
         <v>0.38999998569488525</v>
       </c>
-      <c r="F38" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F38" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
-        <v>42780</v>
-      </c>
-      <c r="B39" s="2">
+      <c r="A39" s="26" t="n">
+        <v>42780.0</v>
+      </c>
+      <c r="B39" s="2" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="2" t="n">
         <v>1.1799999475479126</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="2" t="n">
         <v>23.700000762939453</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="2" t="n">
         <v>0.36000001430511475</v>
       </c>
-      <c r="F39" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F39" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
-        <v>42782</v>
-      </c>
-      <c r="B40" s="2">
+      <c r="A40" s="26" t="n">
+        <v>42782.0</v>
+      </c>
+      <c r="B40" s="2" t="n">
         <v>1.2799999713897705</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="2" t="n">
         <v>1.1699999570846558</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="2" t="n">
         <v>23.100000381469727</v>
       </c>
-      <c r="E40" s="2">
-        <v>0.34000000357627869</v>
-      </c>
-      <c r="F40" s="2">
-        <v>2.0000000949949026E-3</v>
+      <c r="E40" s="2" t="n">
+        <v>0.3400000035762787</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>0.0020000000949949026</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
-        <v>42789</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="A41" s="26" t="n">
+        <v>42789.0</v>
+      </c>
+      <c r="B41" s="2" t="n">
         <v>1.4600000381469727</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="2" t="n">
         <v>1.3799999952316284</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="2" t="n">
         <v>22.100000381469727</v>
       </c>
-      <c r="E41" s="2">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="F41" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E41" s="2" t="n">
+        <v>0.3499999940395355</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
-        <v>42803</v>
-      </c>
-      <c r="B42" s="2">
+      <c r="A42" s="26" t="n">
+        <v>42803.0</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>1.4199999570846558</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="2" t="n">
         <v>1.2200000286102295</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="2" t="n">
         <v>20.5</v>
       </c>
-      <c r="E42" s="2">
-        <v>0.31999999284744263</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E42" s="2" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
-        <v>42815</v>
-      </c>
-      <c r="B43" s="2">
+      <c r="A43" s="26" t="n">
+        <v>42815.0</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>1.3600000143051147</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="2" t="n">
         <v>1.2400000095367432</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="2" t="n">
         <v>21.5</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="2" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F43" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F43" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
-        <v>42816</v>
-      </c>
-      <c r="B44" s="2">
+      <c r="A44" s="26" t="n">
+        <v>42816.0</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>1.3300000429153442</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="2" t="n">
         <v>1.2100000381469727</v>
       </c>
-      <c r="D44" s="2">
-        <v>22</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0.31999999284744263</v>
-      </c>
-      <c r="F44" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="D44" s="2" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
-        <v>42822</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1.3999999761581421</v>
-      </c>
-      <c r="C45" s="2">
+      <c r="A45" s="26" t="n">
+        <v>42822.0</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="C45" s="2" t="n">
         <v>1.2200000286102295</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="2" t="n">
         <v>21.600000381469727</v>
       </c>
-      <c r="E45" s="2">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="F45" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E45" s="2" t="n">
+        <v>0.3100000023841858</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
-        <v>42828</v>
-      </c>
-      <c r="B46" s="2">
+      <c r="A46" s="26" t="n">
+        <v>42828.0</v>
+      </c>
+      <c r="B46" s="2" t="n">
         <v>1.3600000143051147</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="2" t="n">
         <v>1.2799999713897705</v>
       </c>
-      <c r="D46" s="2">
-        <v>20</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0.31999999284744263</v>
-      </c>
-      <c r="F46" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="D46" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>0.3199999928474426</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
-        <v>42836</v>
-      </c>
-      <c r="B47" s="2">
+      <c r="A47" s="26" t="n">
+        <v>42836.0</v>
+      </c>
+      <c r="B47" s="2" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="2" t="n">
         <v>18.899999618530273</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="2" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F47" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F47" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="23">
-        <v>42843</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1.6000000238418579</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="A48" s="26" t="n">
+        <v>42843.0</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>1.600000023841858</v>
+      </c>
+      <c r="C48" s="2" t="n">
         <v>1.3799999952316284</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="2" t="n">
         <v>19.299999237060547</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="2" t="n">
         <v>0.33000001311302185</v>
       </c>
-      <c r="F48" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F48" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="23">
-        <v>42857</v>
-      </c>
-      <c r="B49" s="2">
+      <c r="A49" s="26" t="n">
+        <v>42857.0</v>
+      </c>
+      <c r="B49" s="2" t="n">
         <v>1.6200000047683716</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="2" t="n">
         <v>1.4199999570846558</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="2" t="n">
         <v>18.200000762939453</v>
       </c>
-      <c r="E49" s="2">
-        <v>0.37000000476837158</v>
-      </c>
-      <c r="F49" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="E49" s="2" t="n">
+        <v>0.3700000047683716</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
-        <v>42864</v>
-      </c>
-      <c r="B50" s="2">
+      <c r="A50" s="26" t="n">
+        <v>42864.0</v>
+      </c>
+      <c r="B50" s="2" t="n">
         <v>1.5399999618530273</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="2" t="n">
         <v>17.299999237060547</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="2" t="n">
         <v>0.30000001192092896</v>
       </c>
-      <c r="F50" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F50" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="23">
-        <v>42871</v>
-      </c>
-      <c r="B51" s="2">
+      <c r="A51" s="26" t="n">
+        <v>42871.0</v>
+      </c>
+      <c r="B51" s="2" t="n">
         <v>1.5700000524520874</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="2" t="n">
         <v>1.2999999523162842</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="2" t="n">
         <v>16.399999618530273</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="2" t="n">
         <v>0.30000001192092896</v>
       </c>
-      <c r="F51" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F51" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
-        <v>42873</v>
-      </c>
-      <c r="B52" s="2">
+      <c r="A52" s="26" t="n">
+        <v>42873.0</v>
+      </c>
+      <c r="B52" s="2" t="n">
         <v>1.559999942779541</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="2" t="n">
         <v>1.440000057220459</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="2" t="n">
         <v>15.5</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="2" t="n">
         <v>0.28999999165534973</v>
       </c>
-      <c r="F52" s="2">
-        <v>1.0000000474974513E-3</v>
+      <c r="F52" s="2" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
-        <v>42878</v>
-      </c>
-      <c r="B53" s="7">
+    <row ht="16" r="53" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="26" t="n">
+        <v>42878.0</v>
+      </c>
+      <c r="B53" s="7" t="n">
         <v>1.4800000190734863</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="7" t="n">
         <v>1.3200000524520874</v>
       </c>
-      <c r="D53" s="7">
-        <v>17</v>
-      </c>
-      <c r="E53" s="7">
+      <c r="D53" s="7" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E53" s="7" t="n">
         <v>0.28999999165534973</v>
       </c>
-      <c r="F53" s="7">
-        <v>1.0000000474974513E-3</v>
+      <c r="F53" s="7" t="n">
+        <v>0.0010000000474974513</v>
       </c>
       <c r="G53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n" s="26">
+        <v>43027.54536824074</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.4800000190734863</v>
+      </c>
+      <c r="D54" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:F53" name="Range1"/>
+    <protectedRange name="Range1" sqref="A4:F53"/>
   </protectedRanges>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G53">
+  <dataValidations count="1" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G4:G53" type="list">
       <formula1>ValidTabletDosed</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>